--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_8.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,178 +488,170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.64, 6.7)]</t>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -663,223 +660,236 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[('0:00:18.300000', '0:00:21.320000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:09.240000', '0:00:17.720000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07916666666666666</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>schubert-winterreise_156</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[('0:00:21.440000', '0:00:24.720000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:06.740000', '0:00:13.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[(0.36, 7.14)]</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
@@ -888,317 +898,278 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[('0:01:36.200000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:10.100000', '0:00:15.420000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:00:37.540000', '0:00:42.720000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(43.38, 45.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.98, 6.3)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
